--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3225.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3225.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.370973380574444</v>
+        <v>1.399799346923828</v>
       </c>
       <c r="B1">
-        <v>3.060317933796563</v>
+        <v>1.59556519985199</v>
       </c>
       <c r="C1">
-        <v>4.556485313385634</v>
+        <v>1.985342741012573</v>
       </c>
       <c r="D1">
-        <v>3.017241271680945</v>
+        <v>2.062791109085083</v>
       </c>
       <c r="E1">
-        <v>1.246733211564623</v>
+        <v>1.589460134506226</v>
       </c>
     </row>
   </sheetData>
